--- a/rapportAfsnit/eProblemloesning/Test/filter/lavpas.xlsx
+++ b/rapportAfsnit/eProblemloesning/Test/filter/lavpas.xlsx
@@ -20,7 +20,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -31,6 +31,22 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -53,14 +69,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -392,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -403,7 +427,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="1">
-        <v>5.9444444399999997E-2</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -411,7 +435,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>7.85E-2</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -419,7 +443,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>6.3E-2</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -427,7 +451,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>-4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -435,63 +459,63 @@
         <v>14</v>
       </c>
       <c r="B5" s="1">
-        <v>-6.0000000000000001E-3</v>
+        <v>-8.8999999999999996E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>15</v>
       </c>
-      <c r="B6" s="1">
-        <v>-6.6000000000000003E-2</v>
+      <c r="B6">
+        <v>-0.14799999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>16</v>
       </c>
-      <c r="B7" s="1">
-        <v>-0.14899999999999999</v>
+      <c r="B7">
+        <v>-0.23100000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>17</v>
       </c>
-      <c r="B8" s="1">
-        <v>-0.26</v>
+      <c r="B8">
+        <v>-0.34100000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>18</v>
       </c>
-      <c r="B9" s="1">
-        <v>-0.40400000000000003</v>
+      <c r="B9">
+        <v>-0.48399999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>19</v>
       </c>
-      <c r="B10" s="1">
-        <v>-0.58699999999999997</v>
+      <c r="B10">
+        <v>-0.66600000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>20</v>
       </c>
-      <c r="B11" s="1">
-        <v>-0.81299999999999994</v>
+      <c r="B11">
+        <v>-0.89200000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>21</v>
       </c>
-      <c r="B12" s="1">
-        <v>-1.087</v>
+      <c r="B12">
+        <v>-1.1639999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -499,7 +523,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="1">
-        <v>-1.41</v>
+        <v>-1.486</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -507,7 +531,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="1">
-        <v>-1.784</v>
+        <v>-1.859</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -515,7 +539,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="1">
-        <v>-2.194</v>
+        <v>-2.2810000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -523,7 +547,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="1">
-        <v>-2.6629999999999998</v>
+        <v>-2.7490000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -531,7 +555,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="1">
-        <v>-3.173</v>
+        <v>-3.2589999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -539,7 +563,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="1">
-        <v>-3.72</v>
+        <v>-3.806</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -547,7 +571,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="1">
-        <v>-4.298</v>
+        <v>-4.383</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -555,7 +579,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="1">
-        <v>-4.9009999999999998</v>
+        <v>-4.9850000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -563,7 +587,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="1">
-        <v>-5.5229999999999997</v>
+        <v>-5.6059999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -571,7 +595,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="1">
-        <v>-6.1580000000000004</v>
+        <v>-6.24</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -579,7 +603,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="1">
-        <v>-6.8010000000000002</v>
+        <v>-6.883</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -587,7 +611,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="1">
-        <v>-7.4489999999999998</v>
+        <v>-7.53</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -595,7 +619,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="1">
-        <v>-8.0980000000000008</v>
+        <v>-8.1780000000000008</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -603,7 +627,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="1">
-        <v>-8.7449999999999992</v>
+        <v>-8.8239999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -611,7 +635,7 @@
         <v>36</v>
       </c>
       <c r="B27" s="1">
-        <v>-9.3879999999999999</v>
+        <v>-9.4675999999999991</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -619,7 +643,7 @@
         <v>37</v>
       </c>
       <c r="B28" s="1">
-        <v>-10.025</v>
+        <v>-10.105</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -627,7 +651,7 @@
         <v>38</v>
       </c>
       <c r="B29" s="1">
-        <v>-10.654999999999999</v>
+        <v>-10.734999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -635,7 +659,7 @@
         <v>39</v>
       </c>
       <c r="B30" s="1">
-        <v>-11.278</v>
+        <v>-11.358000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -643,7 +667,7 @@
         <v>40</v>
       </c>
       <c r="B31" s="1">
-        <v>-11.891</v>
+        <v>-11.971</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -651,7 +675,7 @@
         <v>41</v>
       </c>
       <c r="B32" s="1">
-        <v>-12.494999999999999</v>
+        <v>-12.574999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -659,7 +683,7 @@
         <v>42</v>
       </c>
       <c r="B33" s="1">
-        <v>-13.089</v>
+        <v>-13.169</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -667,7 +691,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="1">
-        <v>-13.673</v>
+        <v>-13.753</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -675,7 +699,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="1">
-        <v>-14.247999999999999</v>
+        <v>-14.327</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -683,7 +707,7 @@
         <v>45</v>
       </c>
       <c r="B36" s="1">
-        <v>-14.811</v>
+        <v>-14.891</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -691,7 +715,7 @@
         <v>46</v>
       </c>
       <c r="B37" s="1">
-        <v>-15.364000000000001</v>
+        <v>-15.446</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -699,7 +723,7 @@
         <v>47</v>
       </c>
       <c r="B38" s="1">
-        <v>-15.912000000000001</v>
+        <v>-15.989000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -707,7 +731,7 @@
         <v>48</v>
       </c>
       <c r="B39" s="1">
-        <v>-16.399999999999999</v>
+        <v>-16.523</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -715,7 +739,7 @@
         <v>49</v>
       </c>
       <c r="B40" s="1">
-        <v>-16.97</v>
+        <v>-17.053000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -723,11 +747,12 @@
         <v>50</v>
       </c>
       <c r="B41" s="1">
-        <v>-17.468</v>
+        <v>-17.559999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/rapportAfsnit/eProblemloesning/Test/filter/lavpas.xlsx
+++ b/rapportAfsnit/eProblemloesning/Test/filter/lavpas.xlsx
@@ -20,6 +20,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -69,22 +73,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -417,7 +431,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -427,7 +441,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="1">
-        <v>1.2999999999999999E-3</v>
+        <v>-3.1E-2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -435,7 +449,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>-0.05</v>
+        <v>-3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -443,7 +457,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>-2.1000000000000001E-2</v>
+        <v>-5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -451,7 +465,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>-4.8000000000000001E-2</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -459,7 +473,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="1">
-        <v>-8.8999999999999996E-2</v>
+        <v>-0.11700000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -467,7 +481,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>-0.14799999999999999</v>
+        <v>-0.17499999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -475,7 +489,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>-0.23100000000000001</v>
+        <v>-0.255</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -483,7 +497,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>-0.34100000000000003</v>
+        <v>-0.36299999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -491,7 +505,7 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>-0.48399999999999999</v>
+        <v>-0.503</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -499,7 +513,7 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>-0.66600000000000004</v>
+        <v>-0.68100000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -507,7 +521,7 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>-0.89200000000000002</v>
+        <v>-0.90300000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -515,7 +529,7 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>-1.1639999999999999</v>
+        <v>-1.171</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -523,7 +537,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="1">
-        <v>-1.486</v>
+        <v>-1.488</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -531,7 +545,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="1">
-        <v>-1.859</v>
+        <v>-1.8560000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -539,7 +553,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="1">
-        <v>-2.2810000000000001</v>
+        <v>-2.2719999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -547,7 +561,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="1">
-        <v>-2.7490000000000001</v>
+        <v>-2.7360000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -555,7 +569,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="1">
-        <v>-3.2589999999999999</v>
+        <v>-3.2410000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -563,7 +577,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="1">
-        <v>-3.806</v>
+        <v>-3.7839999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -571,7 +585,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="1">
-        <v>-4.383</v>
+        <v>-4.3570000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -579,7 +593,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="1">
-        <v>-4.9850000000000003</v>
+        <v>-4.9560000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -587,7 +601,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="1">
-        <v>-5.6059999999999999</v>
+        <v>-5.5750000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -595,7 +609,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="1">
-        <v>-6.24</v>
+        <v>-6.2069999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -603,15 +617,15 @@
         <v>32</v>
       </c>
       <c r="B23" s="1">
-        <v>-6.883</v>
+        <v>-6.8470000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>33</v>
       </c>
-      <c r="B24" s="1">
-        <v>-7.53</v>
+      <c r="B24" s="2">
+        <v>-7.4930000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -619,7 +633,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="1">
-        <v>-8.1780000000000008</v>
+        <v>-8.141</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -627,7 +641,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="1">
-        <v>-8.8239999999999998</v>
+        <v>-8.7859999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -635,7 +649,7 @@
         <v>36</v>
       </c>
       <c r="B27" s="1">
-        <v>-9.4675999999999991</v>
+        <v>-9.4280000000000008</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -643,7 +657,7 @@
         <v>37</v>
       </c>
       <c r="B28" s="1">
-        <v>-10.105</v>
+        <v>-10.065</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -651,15 +665,15 @@
         <v>38</v>
       </c>
       <c r="B29" s="1">
-        <v>-10.734999999999999</v>
+        <v>-10.695</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>39</v>
       </c>
-      <c r="B30" s="1">
-        <v>-11.358000000000001</v>
+      <c r="B30" s="2">
+        <v>-11.316000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -667,15 +681,15 @@
         <v>40</v>
       </c>
       <c r="B31" s="1">
-        <v>-11.971</v>
+        <v>-11.929</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>41</v>
       </c>
-      <c r="B32" s="1">
-        <v>-12.574999999999999</v>
+      <c r="B32" s="2">
+        <v>-12.532999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -683,15 +697,15 @@
         <v>42</v>
       </c>
       <c r="B33" s="1">
-        <v>-13.169</v>
+        <v>-13.125999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>43</v>
       </c>
-      <c r="B34" s="1">
-        <v>-13.753</v>
+      <c r="B34" s="3">
+        <v>-13.71</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -699,7 +713,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="1">
-        <v>-14.327</v>
+        <v>-14.284000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -707,7 +721,7 @@
         <v>45</v>
       </c>
       <c r="B36" s="1">
-        <v>-14.891</v>
+        <v>-14.848000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -715,7 +729,7 @@
         <v>46</v>
       </c>
       <c r="B37" s="1">
-        <v>-15.446</v>
+        <v>-15.401999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -723,7 +737,7 @@
         <v>47</v>
       </c>
       <c r="B38" s="1">
-        <v>-15.989000000000001</v>
+        <v>-15.946</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -731,23 +745,23 @@
         <v>48</v>
       </c>
       <c r="B39" s="1">
-        <v>-16.523</v>
+        <v>-16.481000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>49</v>
       </c>
-      <c r="B40" s="1">
-        <v>-17.053000000000001</v>
+      <c r="B40" s="2">
+        <v>-17.006</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>50</v>
       </c>
-      <c r="B41" s="1">
-        <v>-17.559999999999999</v>
+      <c r="B41" s="2">
+        <v>-17.521999999999998</v>
       </c>
     </row>
   </sheetData>
